--- a/medicine/Enfance/Geraldine_McCaughrean/Geraldine_McCaughrean.xlsx
+++ b/medicine/Enfance/Geraldine_McCaughrean/Geraldine_McCaughrean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geraldine McCaughrean, née le 6 juin 1951 à Londres, est une femme de lettres britannique, auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geraldine McCaughrean est connue pour avoir repris le personnage littéraire de Peter Pan pour écrire une suite au roman de J. M. Barrie[1].
-Parmi les livres qui l'ont marquée dans sa jeunesse, elle cite L'Aigle de la neuvième légion de Rosemary Sutcliff et la trilogie de Gormenghast de Mervyn Peake[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geraldine McCaughrean est connue pour avoir repris le personnage littéraire de Peter Pan pour écrire une suite au roman de J. M. Barrie.
+Parmi les livres qui l'ont marquée dans sa jeunesse, elle cite L'Aigle de la neuvième légion de Rosemary Sutcliff et la trilogie de Gormenghast de Mervyn Peake.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Histoire extraordinaire de Noël, ill. par Helen Ward, Paris : Rouge et or, 1990.
 L'Histoire extraordinaire de l'arche de Noé (The Story of Noah and the Ark), ill. par Helen Ward, Rouge et or, 1990.
@@ -589,16 +605,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Whitbread 1987 pour A Little Low of Angels[3]
-Médaille Carnegie 1988 pour A Pack of Lies[4]
-Guardian Children's Fiction Prize 1989 pour A Pack of Lies[5]
-Prix Whitbread 1994 pour Gold Dust[3]
-Prix Whitbread 2004 pour Not the End of the World[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Whitbread 1987 pour A Little Low of Angels
+Médaille Carnegie 1988 pour A Pack of Lies
+Guardian Children's Fiction Prize 1989 pour A Pack of Lies
+Prix Whitbread 1994 pour Gold Dust
+Prix Whitbread 2004 pour Not the End of the World
 Prix Michael L. Printz 2008 pour Blanches Ténèbres
-Finaliste Médaille Carnegie 2011[6] pour The Death Defying Pepper Roux 
-Finaliste Médaille Carnegie 2015[6] pour The Middle of Nowhere</t>
+Finaliste Médaille Carnegie 2011 pour The Death Defying Pepper Roux 
+Finaliste Médaille Carnegie 2015 pour The Middle of Nowhere</t>
         </is>
       </c>
     </row>
